--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_16-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_16-33.xlsx
@@ -77,7 +77,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>12:2</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -236,7 +236,7 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>معجون اسنان بارودونتكس 50مل</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -1113,7 +1110,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2179,7 +2176,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2197,7 +2194,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2228,19 +2225,19 @@
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c t="s" r="A58" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c t="s" r="F58" s="12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
       <c t="s" r="I58" s="14">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
